--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B3DD5D-B877-47E9-B05F-B971E95B5503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E89774-8929-4778-ABA0-299466794421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1823,9 +1823,6 @@
     <t>https://http2.mlstatic.com/D_NQ_NP_669499-MLB53315466897_012023-O.webp</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S3be3b44d2954455493e762950686544e3.jpg</t>
-  </si>
-  <si>
     <t>https://www.intercyprus.com/cdn/shop/files/aaf729e2-cc35-4d14-96d6-b381f5aa6252.jpg</t>
   </si>
   <si>
@@ -1893,6 +1890,9 @@
   </si>
   <si>
     <t>https://ae01.alicdn.com/kf/Sf158e6ce530a4cfb9e74bdd4fe91eeeej.jpg</t>
+  </si>
+  <si>
+    <t>https://ae01.alicdn.com/kf/S0590c832e4ab4305b04866e016b27e46D.jpg</t>
   </si>
 </sst>
 </file>
@@ -1988,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2011,7 +2011,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2402,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6072,7 +6071,7 @@
         <v>5</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J124" s="7"/>
     </row>
@@ -6116,7 +6115,7 @@
         <v>5</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J126" s="7"/>
     </row>
@@ -6187,7 +6186,7 @@
         <v>5</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="J129" s="7"/>
     </row>
@@ -6250,10 +6249,10 @@
         <v>6</v>
       </c>
       <c r="I132" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="J132" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -6274,7 +6273,7 @@
         <v>6</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J133" s="7"/>
     </row>
@@ -6296,7 +6295,7 @@
         <v>6</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J134" s="7"/>
     </row>
@@ -6340,7 +6339,7 @@
         <v>8</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J136" s="7"/>
     </row>
@@ -6862,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J158" s="7"/>
     </row>
@@ -6884,7 +6883,7 @@
         <v>10</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J159" s="7"/>
     </row>
@@ -6906,7 +6905,7 @@
         <v>10</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J160" s="7"/>
     </row>
@@ -6950,7 +6949,7 @@
         <v>10</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J162" s="7"/>
     </row>
@@ -6972,7 +6971,7 @@
         <v>10</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J163" s="7"/>
     </row>
@@ -7016,7 +7015,7 @@
         <v>10</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J165" s="7"/>
     </row>
@@ -7088,7 +7087,7 @@
         <v>12</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J168" s="7"/>
     </row>
@@ -7110,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J169" s="7"/>
     </row>
@@ -7218,7 +7217,7 @@
         <v>14</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J175" s="7"/>
     </row>
@@ -7420,7 +7419,7 @@
         <v>17</v>
       </c>
       <c r="I182" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J182" s="7"/>
     </row>
@@ -7442,7 +7441,7 @@
         <v>17</v>
       </c>
       <c r="I183" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J183" s="7"/>
     </row>
@@ -7688,7 +7687,7 @@
         <v>28</v>
       </c>
       <c r="I192" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J192" s="7"/>
     </row>
@@ -8002,7 +8001,7 @@
         <v>39</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J203" s="7"/>
     </row>
@@ -8054,7 +8053,7 @@
         <v>40</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J205" s="7"/>
     </row>
@@ -8076,7 +8075,7 @@
         <v>45</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J206" s="7"/>
     </row>
@@ -8559,7 +8558,7 @@
       <c r="E227" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="F227" s="10">
+      <c r="F227" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
@@ -8572,13 +8571,13 @@
       <c r="E228" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F228" s="10">
+      <c r="F228" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E89774-8929-4778-ABA0-299466794421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B671235-4F58-4EB9-AF80-4AA593E41E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="619">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1785,9 +1785,6 @@
   </si>
   <si>
     <t>https://ae01.alicdn.com/kf/Hf44974b8c0fc4b2cb8eda004b53ea59cu.jpg</t>
-  </si>
-  <si>
-    <t>EN TRANSITO</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61osZEFK3iL._AC_SX679_.jpg</t>
@@ -2401,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C222" sqref="C222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2977,7 +2974,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -2990,19 +2987,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H20" s="8">
         <v>3</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
@@ -3015,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H21" s="8">
         <v>4</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J21" s="7"/>
     </row>
@@ -4811,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J80" s="7"/>
     </row>
@@ -5876,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="I115" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J115" s="7"/>
     </row>
@@ -5942,7 +5939,7 @@
         <v>5</v>
       </c>
       <c r="I118" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J118" s="7"/>
     </row>
@@ -5983,7 +5980,7 @@
         <v>5</v>
       </c>
       <c r="I120" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J120" s="7"/>
     </row>
@@ -6071,7 +6068,7 @@
         <v>5</v>
       </c>
       <c r="I124" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J124" s="7"/>
     </row>
@@ -6115,7 +6112,7 @@
         <v>5</v>
       </c>
       <c r="I126" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="J126" s="7"/>
     </row>
@@ -6186,7 +6183,7 @@
         <v>5</v>
       </c>
       <c r="I129" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J129" s="7"/>
     </row>
@@ -6249,10 +6246,10 @@
         <v>6</v>
       </c>
       <c r="I132" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="J132" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -6273,7 +6270,7 @@
         <v>6</v>
       </c>
       <c r="I133" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="J133" s="7"/>
     </row>
@@ -6295,7 +6292,7 @@
         <v>6</v>
       </c>
       <c r="I134" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J134" s="7"/>
     </row>
@@ -6339,7 +6336,7 @@
         <v>8</v>
       </c>
       <c r="I136" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J136" s="7"/>
     </row>
@@ -6861,7 +6858,7 @@
         <v>10</v>
       </c>
       <c r="I158" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="J158" s="7"/>
     </row>
@@ -6883,7 +6880,7 @@
         <v>10</v>
       </c>
       <c r="I159" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="J159" s="7"/>
     </row>
@@ -6905,7 +6902,7 @@
         <v>10</v>
       </c>
       <c r="I160" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J160" s="7"/>
     </row>
@@ -6949,7 +6946,7 @@
         <v>10</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J162" s="7"/>
     </row>
@@ -6971,7 +6968,7 @@
         <v>10</v>
       </c>
       <c r="I163" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J163" s="7"/>
     </row>
@@ -7015,7 +7012,7 @@
         <v>10</v>
       </c>
       <c r="I165" s="7" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J165" s="7"/>
     </row>
@@ -7087,7 +7084,7 @@
         <v>12</v>
       </c>
       <c r="I168" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J168" s="7"/>
     </row>
@@ -7109,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="I169" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J169" s="7"/>
     </row>
@@ -7217,7 +7214,7 @@
         <v>14</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J175" s="7"/>
     </row>
@@ -7419,7 +7416,7 @@
         <v>17</v>
       </c>
       <c r="I182" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J182" s="7"/>
     </row>
@@ -7441,7 +7438,7 @@
         <v>17</v>
       </c>
       <c r="I183" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J183" s="7"/>
     </row>
@@ -7687,7 +7684,7 @@
         <v>28</v>
       </c>
       <c r="I192" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J192" s="7"/>
     </row>
@@ -8001,7 +7998,7 @@
         <v>39</v>
       </c>
       <c r="I203" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="J203" s="7"/>
     </row>
@@ -8053,7 +8050,7 @@
         <v>40</v>
       </c>
       <c r="I205" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="J205" s="7"/>
     </row>
@@ -8075,7 +8072,7 @@
         <v>45</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J206" s="7"/>
     </row>
@@ -8490,8 +8487,8 @@
       <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C222" s="7" t="s">
-        <v>584</v>
+      <c r="C222" s="7">
+        <v>-1</v>
       </c>
       <c r="F222" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8503,8 +8500,8 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C223" s="7" t="s">
-        <v>584</v>
+      <c r="C223" s="7">
+        <v>-1</v>
       </c>
       <c r="F223" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8519,8 +8516,8 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C224" s="7" t="s">
-        <v>584</v>
+      <c r="C224" s="7">
+        <v>-1</v>
       </c>
       <c r="F224" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8532,6 +8529,9 @@
       </c>
     </row>
     <row r="225" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C225" s="7">
+        <v>-1</v>
+      </c>
       <c r="F225" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
@@ -8542,6 +8542,9 @@
       </c>
     </row>
     <row r="226" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C226" s="7">
+        <v>-1</v>
+      </c>
       <c r="F226" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
@@ -8552,8 +8555,8 @@
       </c>
     </row>
     <row r="227" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C227" s="7" t="s">
-        <v>584</v>
+      <c r="C227" s="7">
+        <v>-1</v>
       </c>
       <c r="E227" s="7" t="s">
         <v>501</v>
@@ -8564,10 +8567,13 @@
       </c>
       <c r="H227" s="8"/>
       <c r="I227" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="228" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C228" s="7">
+        <v>-1</v>
+      </c>
       <c r="E228" s="7" t="s">
         <v>473</v>
       </c>
@@ -8577,7 +8583,7 @@
       </c>
       <c r="H228" s="8"/>
       <c r="I228" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/catalogo.xlsx
+++ b/catalogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EQUIPO\Desktop\mi-tienda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B671235-4F58-4EB9-AF80-4AA593E41E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0971126F-57B7-4FD4-A9B8-986B573B7A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="628">
   <si>
     <t>CODIGO</t>
   </si>
@@ -1890,6 +1890,33 @@
   </si>
   <si>
     <t>https://ae01.alicdn.com/kf/S0590c832e4ab4305b04866e016b27e46D.jpg</t>
+  </si>
+  <si>
+    <t>Llavero Dota 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegatina Transformers </t>
+  </si>
+  <si>
+    <t>7x7cm aluminio</t>
+  </si>
+  <si>
+    <t>Pegatina 3 gatitos</t>
+  </si>
+  <si>
+    <t>Tapitas de Neumaticos RGB</t>
+  </si>
+  <si>
+    <t>Pilas</t>
+  </si>
+  <si>
+    <t>Pegatina Interruptor de encendido</t>
+  </si>
+  <si>
+    <t>Pegatina Tiburon</t>
+  </si>
+  <si>
+    <t>Privacidad Camaras</t>
   </si>
 </sst>
 </file>
@@ -1985,7 +2012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2008,6 +2035,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2076,8 +2104,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J228" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="A1:J228" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}" name="Tabla1" displayName="Tabla1" ref="A1:J232" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="A1:J232" xr:uid="{9152E929-B650-4928-A033-F3B04FA1DA9E}">
     <filterColumn colId="2">
       <filters>
         <filter val="1"/>
@@ -2396,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C222" sqref="C222"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="H229" sqref="H229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8487,8 +8515,14 @@
       <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="7" t="s">
+        <v>622</v>
+      </c>
       <c r="C222" s="7">
         <v>-1</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>473</v>
       </c>
       <c r="F222" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8500,14 +8534,25 @@
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>623</v>
+      </c>
       <c r="C223" s="7">
         <v>-1</v>
       </c>
+      <c r="E223" s="7" t="s">
+        <v>502</v>
+      </c>
       <c r="F223" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="H223" s="8"/>
+      <c r="G223" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="H223" s="8">
+        <v>10</v>
+      </c>
       <c r="I223" s="7" t="s">
         <v>570</v>
       </c>
@@ -8516,21 +8561,35 @@
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B224" s="7" t="s">
+        <v>625</v>
+      </c>
       <c r="C224" s="7">
         <v>-1</v>
       </c>
+      <c r="E224" s="7" t="s">
+        <v>473</v>
+      </c>
       <c r="F224" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="H224" s="8"/>
+      <c r="H224" s="8">
+        <v>6</v>
+      </c>
       <c r="I224" s="7" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="7" t="s">
+        <v>626</v>
+      </c>
       <c r="C225" s="7">
         <v>-1</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>473</v>
       </c>
       <c r="F225" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
@@ -8541,20 +8600,31 @@
         <v>578</v>
       </c>
     </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="7" t="s">
+        <v>627</v>
+      </c>
       <c r="C226" s="7">
         <v>-1</v>
       </c>
+      <c r="E226" s="7" t="s">
+        <v>443</v>
+      </c>
       <c r="F226" s="7">
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="H226" s="8"/>
+      <c r="H226" s="8">
+        <v>2</v>
+      </c>
       <c r="I226" s="7" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="7" t="s">
+        <v>619</v>
+      </c>
       <c r="C227" s="7">
         <v>-1</v>
       </c>
@@ -8565,12 +8635,17 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="H227" s="8"/>
+      <c r="H227" s="8">
+        <v>5</v>
+      </c>
       <c r="I227" s="7" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="7" t="s">
+        <v>620</v>
+      </c>
       <c r="C228" s="7">
         <v>-1</v>
       </c>
@@ -8581,10 +8656,43 @@
         <f>+Tabla1[[#This Row],[CODIGO]]</f>
         <v>0</v>
       </c>
-      <c r="H228" s="8"/>
+      <c r="G228" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="H228" s="8">
+        <v>12</v>
+      </c>
       <c r="I228" s="7" t="s">
         <v>595</v>
       </c>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F229" s="10">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H229" s="8"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F230" s="10">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H230" s="8"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F231" s="10">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H231" s="8"/>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F232" s="10">
+        <f>+Tabla1[[#This Row],[CODIGO]]</f>
+        <v>0</v>
+      </c>
+      <c r="H232" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
